--- a/code/merged_excel - 副本.xlsx
+++ b/code/merged_excel - 副本.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$1:$S$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -300,7 +300,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +311,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -791,28 +784,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,118 +817,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,8 +1286,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2556,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" hidden="1" spans="1:19">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" hidden="1" spans="1:19">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3205,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" hidden="1" spans="1:19">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" hidden="1" spans="1:19">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3323,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" hidden="1" spans="1:19">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3382,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" hidden="1" spans="1:19">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3441,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" hidden="1" spans="1:19">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3559,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" hidden="1" spans="1:19">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3677,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" hidden="1" spans="1:19">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -4267,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" hidden="1" spans="1:19">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -4326,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" hidden="1" spans="1:19">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -4385,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" hidden="1" spans="1:19">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -5093,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" hidden="1" spans="1:19">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -5330,8 +5323,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="S1:S68">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:S68">
+    <filterColumn colId="17">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="18">
       <filters>
         <filter val="0"/>
       </filters>

--- a/code/merged_excel - 副本.xlsx
+++ b/code/merged_excel - 副本.xlsx
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:19">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:19">
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:19">
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:19">
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:19">
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:19">
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:19">
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:19">
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:19">
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:19">
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:19">
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:19">
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:19">
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -5324,15 +5324,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S68">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="18">
-      <filters>
-        <filter val="0"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="0"/>
+      </customFilters>
     </filterColumn>
     <extLst/>
   </autoFilter>
